--- a/biology/Botanique/Acinetosporaceae/Acinetosporaceae.xlsx
+++ b/biology/Botanique/Acinetosporaceae/Acinetosporaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acinetosporaceae sont une famille d’algues brunes de l’ordre des Ectocarpales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Acinetospora composé du préfixe "a" privatif, et des mots grecs  κινέω/ kineo, mouvement, et σπορά / spora, semence, en raison des spores non motiles de l'algue[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Acinetospora composé du préfixe "a" privatif, et des mots grecs  κινέω/ kineo, mouvement, et σπορά / spora, semence, en raison des spores non motiles de l'algue. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve ce type d'algue sur une grande parties des côtes autour du globe[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve ce type d'algue sur une grande parties des côtes autour du globe.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (22 août 2017)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (22 août 2017) :
 Acinetospora (en) Bornet
 Feldmannia Hamel
 Geminocarpus Skottsberg
@@ -584,7 +602,7 @@
 Internoretia Setchell &amp; N.L.Gardner
 Pogotrichum Reinke
 Pylaiella (en) Bory
-Selon World Register of Marine Species                               (22 août 2017)[4] :
+Selon World Register of Marine Species                               (22 août 2017) :
 Acinetospora Bornet, 1891
 Feldmannia G.Hamel, 1939
 Geminocarpus Skottsberg, 1907
